--- a/Particles_16h.xlsx
+++ b/Particles_16h.xlsx
@@ -454,7 +454,7 @@
         <v>943247.11012346</v>
       </c>
       <c r="L2">
-        <v>63.65176843097498</v>
+        <v>77.70674190148164</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         <v>779067.91864198</v>
       </c>
       <c r="L3">
-        <v>52.11415794130879</v>
+        <v>63.45146830094934</v>
       </c>
     </row>
     <row r="4">
@@ -530,7 +530,7 @@
         <v>334968.871358025</v>
       </c>
       <c r="L4">
-        <v>21.87375651308165</v>
+        <v>26.43283994467615</v>
       </c>
     </row>
     <row r="5">
@@ -568,7 +568,7 @@
         <v>907921.4334567899</v>
       </c>
       <c r="L5">
-        <v>61.15295585022911</v>
+        <v>74.61352788133114</v>
       </c>
     </row>
     <row r="6">
@@ -606,7 +606,7 @@
         <v>1503590.91111111</v>
       </c>
       <c r="L6">
-        <v>104.4850938785159</v>
+        <v>128.6765429487862</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +644,7 @@
         <v>1773745.97888889</v>
       </c>
       <c r="L7">
-        <v>124.9761538962617</v>
+        <v>154.53051376969</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +682,7 @@
         <v>2835640.84395062</v>
       </c>
       <c r="L8">
-        <v>210.5910575974681</v>
+        <v>264.2254864146946</v>
       </c>
     </row>
     <row r="9">
@@ -720,7 +720,7 @@
         <v>86438.91135802501</v>
       </c>
       <c r="L9">
-        <v>5.56752021019679</v>
+        <v>6.698429611441841</v>
       </c>
     </row>
     <row r="10">
@@ -758,7 +758,7 @@
         <v>2596674.16654321</v>
       </c>
       <c r="L10">
-        <v>190.6194535424062</v>
+        <v>238.4178524691897</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         <v>2587375.00864197</v>
       </c>
       <c r="L11">
-        <v>189.8505543796622</v>
+        <v>237.4267465035105</v>
       </c>
     </row>
     <row r="12">
@@ -834,7 +834,7 @@
         <v>1417970.34135802</v>
       </c>
       <c r="L12">
-        <v>98.10004288301003</v>
+        <v>120.6564274910359</v>
       </c>
     </row>
     <row r="13">
@@ -872,7 +872,7 @@
         <v>1586448.95333333</v>
       </c>
       <c r="L13">
-        <v>110.7141786179602</v>
+        <v>136.5175459330904</v>
       </c>
     </row>
     <row r="14">
@@ -910,7 +910,7 @@
         <v>2774397.27592593</v>
       </c>
       <c r="L14">
-        <v>205.4336150639769</v>
+        <v>257.5492713223564</v>
       </c>
     </row>
     <row r="15">
@@ -948,7 +948,7 @@
         <v>4084648.31234568</v>
       </c>
       <c r="L15">
-        <v>321.6393581517991</v>
+        <v>409.7188316242566</v>
       </c>
     </row>
     <row r="16">
@@ -986,7 +986,7 @@
         <v>3124073.30481481</v>
       </c>
       <c r="L16">
-        <v>235.242103778305</v>
+        <v>296.2432573538058</v>
       </c>
     </row>
     <row r="17">
@@ -1024,7 +1024,7 @@
         <v>1736842.45691358</v>
       </c>
       <c r="L17">
-        <v>122.1461903548538</v>
+        <v>150.9497127174508</v>
       </c>
     </row>
     <row r="18">
@@ -1062,7 +1062,7 @@
         <v>1941238.76469136</v>
       </c>
       <c r="L18">
-        <v>137.9431472871386</v>
+        <v>170.9779205956644</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1100,7 @@
         <v>396826.259382716</v>
       </c>
       <c r="L19">
-        <v>26.0010970487185</v>
+        <v>31.45415195572332</v>
       </c>
     </row>
     <row r="20">
@@ -1138,7 +1138,7 @@
         <v>2272854.93333333</v>
       </c>
       <c r="L20">
-        <v>164.2096435561664</v>
+        <v>204.4862815074269</v>
       </c>
     </row>
     <row r="21">
@@ -1176,7 +1176,7 @@
         <v>3660468.30679012</v>
       </c>
       <c r="L21">
-        <v>282.6715346519252</v>
+        <v>358.3109146747744</v>
       </c>
     </row>
     <row r="22">
@@ -1214,7 +1214,7 @@
         <v>7540957.293827159</v>
       </c>
       <c r="L22">
-        <v>687.2401048470812</v>
+        <v>905.1313182178878</v>
       </c>
     </row>
     <row r="23">
@@ -1252,7 +1252,7 @@
         <v>2688621.5445679</v>
       </c>
       <c r="L23">
-        <v>198.2554796353465</v>
+        <v>248.2707401631014</v>
       </c>
     </row>
     <row r="24">
@@ -1290,7 +1290,7 @@
         <v>9628022.5119753</v>
       </c>
       <c r="L24">
-        <v>949.4815037232215</v>
+        <v>1270.297186026333</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>1704448.37061728</v>
       </c>
       <c r="L25">
-        <v>119.6700826860058</v>
+        <v>147.8192776171886</v>
       </c>
     </row>
     <row r="26">
@@ -1366,7 +1366,7 @@
         <v>56891.52790123501</v>
       </c>
       <c r="L26">
-        <v>3.658350314188933</v>
+        <v>4.399115950168318</v>
       </c>
     </row>
     <row r="27">
@@ -1404,7 +1404,7 @@
         <v>2096812.60580247</v>
       </c>
       <c r="L27">
-        <v>150.1675818592483</v>
+        <v>186.5417020773705</v>
       </c>
     </row>
     <row r="28">
@@ -1442,7 +1442,7 @@
         <v>1244032.76765432</v>
       </c>
       <c r="L28">
-        <v>85.29070924092855</v>
+        <v>104.6212287184313</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1480,7 @@
         <v>1516794.39481481</v>
       </c>
       <c r="L29">
-        <v>105.4744055791971</v>
+        <v>129.9207642381645</v>
       </c>
     </row>
     <row r="30">
@@ -1518,7 +1518,7 @@
         <v>9050189.520617301</v>
       </c>
       <c r="L30">
-        <v>873.749908608911</v>
+        <v>1164.219831716507</v>
       </c>
     </row>
     <row r="31">
@@ -1556,7 +1556,7 @@
         <v>1799783.4208642</v>
       </c>
       <c r="L31">
-        <v>126.9787222752285</v>
+        <v>157.0663147922161</v>
       </c>
     </row>
     <row r="32">
@@ -1594,7 +1594,7 @@
         <v>1904269.52691358</v>
       </c>
       <c r="L32">
-        <v>135.0637557907675</v>
+        <v>167.320092884383</v>
       </c>
     </row>
     <row r="33">
@@ -1632,7 +1632,7 @@
         <v>2438119.62271605</v>
       </c>
       <c r="L33">
-        <v>177.5942396675017</v>
+        <v>221.6541130925403</v>
       </c>
     </row>
     <row r="34">
@@ -1670,7 +1670,7 @@
         <v>1957949.28</v>
       </c>
       <c r="L34">
-        <v>139.2478807462433</v>
+        <v>172.6364186356977</v>
       </c>
     </row>
     <row r="35">
@@ -1708,7 +1708,7 @@
         <v>1352571.79296296</v>
       </c>
       <c r="L35">
-        <v>93.25843181052748</v>
+        <v>114.5868723550571</v>
       </c>
     </row>
   </sheetData>
